--- a/Verhalen_Literariness_ValidResponses.xlsx
+++ b/Verhalen_Literariness_ValidResponses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchaowang/Documents/GitHub/RStudio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3ABCDAE-763A-824C-A262-CE2554D8E37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E0B7E-83F4-E441-B2F3-52E0CF11A29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27580" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="27580" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verhalen_Literariness_ValidResp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1367">
   <si>
     <t>StartDate</t>
   </si>
@@ -4144,24 +4144,12 @@
   </si>
   <si>
     <t>51: schrammen</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>STDEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4999,11 +4987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KX34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:KX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KH1" workbookViewId="0">
-      <selection activeCell="KS34" sqref="KS34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="KT35" sqref="KQ31:KT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5940,7 +5928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:310" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -30015,38 +30003,6 @@
       </c>
       <c r="KX29">
         <v>8340384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:310" x14ac:dyDescent="0.2">
-      <c r="KR31" t="s">
-        <v>1367</v>
-      </c>
-      <c r="KS31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:310" x14ac:dyDescent="0.2">
-      <c r="KR32" t="s">
-        <v>1368</v>
-      </c>
-      <c r="KS32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="304:305" x14ac:dyDescent="0.2">
-      <c r="KR33" t="s">
-        <v>1369</v>
-      </c>
-      <c r="KS33">
-        <v>20.777777780000001</v>
-      </c>
-    </row>
-    <row r="34" spans="304:305" x14ac:dyDescent="0.2">
-      <c r="KR34" t="s">
-        <v>1370</v>
-      </c>
-      <c r="KS34">
-        <v>2.7221786149999998</v>
       </c>
     </row>
   </sheetData>
